--- a/AfDD_2024_Annex_Table_Tab35.xlsx
+++ b/AfDD_2024_Annex_Table_Tab35.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8211D422-AB50-4934-BAEF-D9DEF126288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C0BE2E4-A386-4AFE-A80F-4268108F3B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2F70FFF5-F5F8-4B91-A563-A7C91D1EB404}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15D72E34-C22A-4445-8CCF-AB760AC68B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B3442-206F-4D61-9619-056B35AA2D4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1043D77-92B7-4B13-87A5-BF056B0CA8CC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9697,12 +9697,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9F2D96BB-84E4-4EAC-ADBF-3F39BC229896}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7FE44A90-EFE2-41E5-B085-88BFBF15AF6F}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{508F1B8B-345F-4390-A46D-E26ECC3259B8}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{5350F08F-9B5E-4D0C-8197-74212A181CEC}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{AB2DFA16-0A39-4694-8415-872C0ABEA654}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{17A75461-2018-4DC5-8CD1-CF64A3CE7426}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F2464B6E-F4B7-4B6A-9079-5F574A298861}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CD9FAC49-4CC4-40CB-AF9D-DAF4614A6020}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E80BC02A-3E62-4B3D-8D86-FF335C2A285D}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{53048D83-C444-40C0-BD87-5AA1B6A9C0F9}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{5045A376-1E0A-4A68-9B57-C5AE46038782}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3B6023AE-E5AA-4509-ACF2-4833F80A6179}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab35.xlsx
+++ b/AfDD_2024_Annex_Table_Tab35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C0BE2E4-A386-4AFE-A80F-4268108F3B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{759DE311-EDE9-47DD-8BF5-4FCAA4EA621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15D72E34-C22A-4445-8CCF-AB760AC68B14}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D056C908-658C-4280-93E7-F462A66EED45}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1043D77-92B7-4B13-87A5-BF056B0CA8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9111FB-8F92-48E2-A0B9-528918A64EE0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1452,7 +1452,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9584,7 +9584,7 @@
       <c r="Z110" s="74"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>188</v>
       </c>
       <c r="C111" s="74"/>
@@ -9613,7 +9613,7 @@
       <c r="Z111" s="74"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="74"/>
@@ -9697,12 +9697,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F2464B6E-F4B7-4B6A-9079-5F574A298861}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CD9FAC49-4CC4-40CB-AF9D-DAF4614A6020}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E80BC02A-3E62-4B3D-8D86-FF335C2A285D}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{53048D83-C444-40C0-BD87-5AA1B6A9C0F9}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{5045A376-1E0A-4A68-9B57-C5AE46038782}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3B6023AE-E5AA-4509-ACF2-4833F80A6179}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DD766E09-26C4-45F7-B5B1-B1AA3D05D0C0}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{32B7D409-93F8-4059-8E44-9BDE8999A129}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A473BB0C-D8B4-4B06-B1E7-10E72205ED7A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{CAA57BA9-5C19-4231-8490-2C895B877525}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{54AA23C6-5702-4995-B5EA-D8F8932520AB}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{58751DFD-7796-4CFF-8CC1-7C76B635C144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab35.xlsx
+++ b/AfDD_2024_Annex_Table_Tab35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{759DE311-EDE9-47DD-8BF5-4FCAA4EA621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED6C703E-3DC6-449C-9268-93343B136922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D056C908-658C-4280-93E7-F462A66EED45}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{A15A4F46-1BB4-452B-9FCF-4AF052B56908}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9111FB-8F92-48E2-A0B9-528918A64EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0036CAE5-8971-49E9-B4DD-E1D7689A10AC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9697,12 +9697,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DD766E09-26C4-45F7-B5B1-B1AA3D05D0C0}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{32B7D409-93F8-4059-8E44-9BDE8999A129}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A473BB0C-D8B4-4B06-B1E7-10E72205ED7A}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{CAA57BA9-5C19-4231-8490-2C895B877525}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{54AA23C6-5702-4995-B5EA-D8F8932520AB}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{58751DFD-7796-4CFF-8CC1-7C76B635C144}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9B8FF027-2ED7-45BF-B9E2-636085228FD7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F08915E1-64C7-4E87-8F32-BC438E693F94}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{211A5D33-B477-45DF-B42B-41203D1D98D9}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{30BD492B-02EB-4C4B-9447-A5771B1749D3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{17F69D4A-2925-4C6F-8994-3586BB6CFA95}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9CA5A484-1ADC-4932-91B1-F93CE2A45702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
